--- a/biology/Botanique/Ranunculus_glaberrimus/Ranunculus_glaberrimus.xlsx
+++ b/biology/Botanique/Ranunculus_glaberrimus/Ranunculus_glaberrimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renoncule d'armoise
 Ranunculus glaberrimus, la  Renoncule d'armoise, est une espèce de plantes à fleurs de la famille des Ranunculaceae et qui est originaire de l'Ouest du Canada, de l'Ouest des États-Unis et du Nord-Ouest des Grandes Plaines.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus glaberrimus est une plante herbacée vivace atteignant 4 à 15 cm de hauteur. Ses feuilles basales, un peu épaisses, sont ovales, avec de longs pétioles, allant d'entiers à trois lobes profonds. Ses feuilles caulinaires ont des pétioles courts mais sont par ailleurs similaires. Les fleurs ont cinq à dix pétales jaunes jusqu'à 1,3 cm de longueur. Les étamines et les pistils sont nombreux. 
 L'espèce serait toxique pour le bétail et peut-être aussi pour les humains.
@@ -544,9 +558,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 septembre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 septembre 2021) :
 variété Ranunculus glaberrimus var. ellipticus (Greene) Greene
 variété Ranunculus glaberrimus var. glaberrimus
 variété Ranunculus glaberrimus var. reconditus (A. Nelson &amp; J.F. Macbr.) L.D. Benson</t>
